--- a/testScenarioAndTestCases.xlsx
+++ b/testScenarioAndTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17040" windowHeight="9192"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenario" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -77,6 +77,574 @@
   </si>
   <si>
     <t>3.5.2</t>
+  </si>
+  <si>
+    <t>Verify click on Email Address input box and enter valid email</t>
+  </si>
+  <si>
+    <t>3.5.3</t>
+  </si>
+  <si>
+    <t>verify click on password and enter valid password</t>
+  </si>
+  <si>
+    <t>3.5.4</t>
+  </si>
+  <si>
+    <t>verify click on Mobile number and enter valid mobile number</t>
+  </si>
+  <si>
+    <t>3.5.5</t>
+  </si>
+  <si>
+    <t>verify we can select only one male or female radio button</t>
+  </si>
+  <si>
+    <t>3.5.6</t>
+  </si>
+  <si>
+    <t>verify click on 'Got a referral code? Apply on the next step'</t>
+  </si>
+  <si>
+    <t>3.5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify click on SIGN UP button and successfully registered with user name and created an account </t>
+  </si>
+  <si>
+    <t>3.5.8</t>
+  </si>
+  <si>
+    <t>Verify click on 'Sign In' link and redirect to signin page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invalid Full name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>3.6.1</t>
+  </si>
+  <si>
+    <t>click on Full name input box and enter invalid inputs</t>
+  </si>
+  <si>
+    <t>3.6.2</t>
+  </si>
+  <si>
+    <t>3.6.3</t>
+  </si>
+  <si>
+    <t>3.6.4</t>
+  </si>
+  <si>
+    <t>3.6.5</t>
+  </si>
+  <si>
+    <t>3.6.6</t>
+  </si>
+  <si>
+    <t>3.6.7</t>
+  </si>
+  <si>
+    <t>Verify click on SIGN UP button and get error message like 'Please enter valid name'</t>
+  </si>
+  <si>
+    <t>3.6.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invalid Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>3.7.1</t>
+  </si>
+  <si>
+    <t>click on Full name input box and enter valid inputs</t>
+  </si>
+  <si>
+    <t>3.7.2</t>
+  </si>
+  <si>
+    <t>Verify click on Email Address input box and enter invalid email</t>
+  </si>
+  <si>
+    <t>3.7.3</t>
+  </si>
+  <si>
+    <t>3.7.4</t>
+  </si>
+  <si>
+    <t>3.7.5</t>
+  </si>
+  <si>
+    <t>3.7.6</t>
+  </si>
+  <si>
+    <t>3.7.7</t>
+  </si>
+  <si>
+    <t>Verify click on SIGN UP button and get error message like 'Please enter valid email'</t>
+  </si>
+  <si>
+    <t>3.7.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invalid password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>3.8.1</t>
+  </si>
+  <si>
+    <t>3.8.2</t>
+  </si>
+  <si>
+    <t>3.8.3</t>
+  </si>
+  <si>
+    <t>verify click on password and enter invalid password</t>
+  </si>
+  <si>
+    <t>3.8.4</t>
+  </si>
+  <si>
+    <t>3.8.5</t>
+  </si>
+  <si>
+    <t>3.8.6</t>
+  </si>
+  <si>
+    <t>3.8.7</t>
+  </si>
+  <si>
+    <t>Verify click on SIGN UP button and get error message like 'Please enter valid password'</t>
+  </si>
+  <si>
+    <t>3.8.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invalid Mobile number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>3.9.1</t>
+  </si>
+  <si>
+    <t>3.9.2</t>
+  </si>
+  <si>
+    <t>3.9.3</t>
+  </si>
+  <si>
+    <t>3.9.4</t>
+  </si>
+  <si>
+    <t>verify click on Mobile number and enter invalid mobile number</t>
+  </si>
+  <si>
+    <t>3.9.5</t>
+  </si>
+  <si>
+    <t>3.9.6</t>
+  </si>
+  <si>
+    <t>3.9.7</t>
+  </si>
+  <si>
+    <t>Verify click on SIGN UP button and get error message like 'Please enter valid mobile number'</t>
+  </si>
+  <si>
+    <t>3.9.8</t>
+  </si>
+  <si>
+    <t>Try to click on male and female both radio button</t>
+  </si>
+  <si>
+    <t>Don't click on 'Got a referral code? Apply on the next step'</t>
+  </si>
+  <si>
+    <t>verify signup with all invalid credentials</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>verify click on full name input box and enter invalid inputs and get error message like 'Name can only have characters'</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>Verify click on Email Address input box and enter invalid email and get error message like 'Email address is not valid'</t>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>verify click on password and enter invalid password and get error message like 'Must contain at least one lowercase one uppercase letter a number a special character and length must be in between 6-20'</t>
+  </si>
+  <si>
+    <t>4.2.4</t>
+  </si>
+  <si>
+    <t>verify click on Mobile number and enter invalid mobile number and get error message like 'Mobile accepts only numbers'</t>
+  </si>
+  <si>
+    <t>4.2.5</t>
+  </si>
+  <si>
+    <t>verify not select any one male or female radio button</t>
+  </si>
+  <si>
+    <t>4.2.6</t>
+  </si>
+  <si>
+    <t>verify not click on 'Got a referral code? Apply on the next step'</t>
+  </si>
+  <si>
+    <t>4.2.7</t>
+  </si>
+  <si>
+    <t>4.2.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full name field blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>leave blank and get error msg before click on sign up button and get error message like 'Please enter valid name'</t>
+  </si>
+  <si>
+    <t>4.3.2</t>
+  </si>
+  <si>
+    <t>4.3.3</t>
+  </si>
+  <si>
+    <t>4.3.4</t>
+  </si>
+  <si>
+    <t>4.3.5</t>
+  </si>
+  <si>
+    <t>4.3.6</t>
+  </si>
+  <si>
+    <t>4.3.7</t>
+  </si>
+  <si>
+    <t>4.3.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email field blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>leave blank and get error msg before click on sign up button and get error message like 'Please enter valid email'</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>4.4.4</t>
+  </si>
+  <si>
+    <t>4.4.5</t>
+  </si>
+  <si>
+    <t>4.4.6</t>
+  </si>
+  <si>
+    <t>4.4.7</t>
+  </si>
+  <si>
+    <t>4.4.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password field blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>4.5.1</t>
+  </si>
+  <si>
+    <t>4.5.2</t>
+  </si>
+  <si>
+    <t>4.5.3</t>
+  </si>
+  <si>
+    <t>leave blank and get error msg before click on sign up button and get error message like 'Must contain at least one lowercase one uppercase letter a number a special character and length must be in between 6-20'</t>
+  </si>
+  <si>
+    <t>4.5.4</t>
+  </si>
+  <si>
+    <t>4.5.5</t>
+  </si>
+  <si>
+    <t>4.5.6</t>
+  </si>
+  <si>
+    <t>4.5.7</t>
+  </si>
+  <si>
+    <t>Verify click on SIGN UP button and get error message like 'Must contain at least one lowercase one uppercase letter a number a special character and length must be in between 6-20'</t>
+  </si>
+  <si>
+    <t>4.5.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mobile number field blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another credentials are valid</t>
+    </r>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>4.6.3</t>
+  </si>
+  <si>
+    <t>4.6.4</t>
+  </si>
+  <si>
+    <t>leave blank and get error msg before click on sign up button and get error message like 'Mobile accepts only numbers'</t>
+  </si>
+  <si>
+    <t>4.6.5</t>
+  </si>
+  <si>
+    <t>4.6.6</t>
+  </si>
+  <si>
+    <t>4.6.7</t>
+  </si>
+  <si>
+    <t>Verify click on SIGN UP button and get error message like 'Mobile accepts only numbers'</t>
+  </si>
+  <si>
+    <t>4.6.8</t>
+  </si>
+  <si>
+    <t>Leave blank all the field</t>
+  </si>
+  <si>
+    <t>4.7.1</t>
+  </si>
+  <si>
+    <t>4.7.2</t>
+  </si>
+  <si>
+    <t>4.7.3</t>
+  </si>
+  <si>
+    <t>4.7.4</t>
+  </si>
+  <si>
+    <t>4.7.5</t>
+  </si>
+  <si>
+    <t>leave blank and get error msg before click on sign up button</t>
+  </si>
+  <si>
+    <t>4.7.6</t>
+  </si>
+  <si>
+    <t>4.7.7</t>
+  </si>
+  <si>
+    <t>Verify click on SIGN UP button but nothing should happen</t>
+  </si>
+  <si>
+    <t>4.7.8</t>
   </si>
 </sst>
 </file>
@@ -84,13 +652,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +683,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,9 +696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,54 +712,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,8 +735,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +745,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,18 +774,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,6 +803,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,19 +843,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,19 +957,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,139 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +1034,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,47 +1105,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,19 +1129,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,148 +1139,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -727,10 +1303,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,10 +1628,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:G39"/>
+  <dimension ref="E1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1221,81 +1797,848 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18" spans="5:7">
-      <c r="E19" s="1">
+    <row r="19" s="1" customFormat="1" ht="18" spans="6:6">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18" spans="5:7">
+      <c r="E20" s="1">
         <v>3.5</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18" spans="6:7">
-      <c r="F20" s="5" t="s">
+    <row r="21" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F21" s="5" t="s">
+    <row r="22" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F22" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F28" s="5"/>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="18" spans="6:6">
       <c r="F29" s="5"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18" spans="6:6">
+    <row r="30" s="1" customFormat="1" ht="18" spans="5:7">
+      <c r="E30" s="1">
+        <v>3.6</v>
+      </c>
       <c r="F30" s="5"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18" spans="6:6">
-      <c r="F38" s="5"/>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18" spans="6:7">
+      <c r="F38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="18" spans="6:6">
       <c r="F39" s="5"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="18" spans="5:7">
+      <c r="E40" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" ht="18" spans="6:7">
+      <c r="F41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" ht="18" spans="6:7">
+      <c r="F42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" ht="18" spans="6:7">
+      <c r="F43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="6:7">
+      <c r="F44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="6:7">
+      <c r="F45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="6:7">
+      <c r="F46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="6:7">
+      <c r="F47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" ht="18" spans="6:7">
+      <c r="F48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" ht="18" spans="5:7">
+      <c r="E50" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" ht="18" spans="6:7">
+      <c r="F51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" ht="18" spans="6:7">
+      <c r="F52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="6:7">
+      <c r="F53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" ht="18" spans="6:7">
+      <c r="F54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" ht="18" spans="6:7">
+      <c r="F55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" ht="18" spans="6:7">
+      <c r="F56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" ht="18" spans="6:7">
+      <c r="F57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" ht="18" spans="6:7">
+      <c r="F58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" ht="18" spans="5:7">
+      <c r="E60" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" ht="18" spans="6:7">
+      <c r="F61" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" ht="18" spans="6:7">
+      <c r="F62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="6:7">
+      <c r="F63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="6:7">
+      <c r="F64" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="6:7">
+      <c r="F65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" ht="18" spans="6:7">
+      <c r="F66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="6:7">
+      <c r="F67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="6:7">
+      <c r="F68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" ht="18" spans="5:7">
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" ht="18" spans="5:7">
+      <c r="E71" s="1"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" ht="18" spans="5:7">
+      <c r="E72" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="5:7">
+      <c r="E74" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="5:7">
+      <c r="E75" s="1"/>
+      <c r="F75" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="5:7">
+      <c r="E76" s="1"/>
+      <c r="F76" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" ht="18" spans="5:7">
+      <c r="E77" s="1"/>
+      <c r="F77" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" ht="18" spans="5:7">
+      <c r="E78" s="1"/>
+      <c r="F78" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" ht="18" spans="5:7">
+      <c r="E79" s="1"/>
+      <c r="F79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" ht="18" spans="5:7">
+      <c r="E80" s="1"/>
+      <c r="F80" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" ht="18" spans="5:7">
+      <c r="E81" s="1"/>
+      <c r="F81" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" ht="18" spans="5:7">
+      <c r="E82" s="1"/>
+      <c r="F82" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" ht="18" spans="5:7">
+      <c r="E84" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="6:7">
+      <c r="F85" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" ht="18" spans="6:7">
+      <c r="F86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" ht="18" spans="6:7">
+      <c r="F87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" ht="18" spans="6:7">
+      <c r="F88" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" ht="18" spans="6:7">
+      <c r="F89" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" ht="18" spans="6:7">
+      <c r="F90" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" ht="18" spans="6:7">
+      <c r="F91" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" ht="18" spans="6:7">
+      <c r="F92" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" ht="18" spans="5:7">
+      <c r="E94" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" ht="18" spans="6:7">
+      <c r="F95" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" ht="18" spans="6:7">
+      <c r="F96" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" ht="18" spans="6:7">
+      <c r="F97" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" ht="18" spans="6:7">
+      <c r="F98" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" ht="18" spans="6:7">
+      <c r="F99" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="6:7">
+      <c r="F100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" ht="18" spans="6:7">
+      <c r="F101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" ht="18" spans="6:7">
+      <c r="F102" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" ht="18" spans="5:7">
+      <c r="E104" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" ht="18" spans="6:7">
+      <c r="F105" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" ht="18" spans="6:7">
+      <c r="F106" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="18" spans="6:7">
+      <c r="F107" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" ht="18" spans="6:7">
+      <c r="F108" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" ht="18" spans="6:7">
+      <c r="F109" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" ht="18" spans="6:7">
+      <c r="F110" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" ht="18" spans="6:7">
+      <c r="F111" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" ht="18" spans="6:7">
+      <c r="F112" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" ht="18" spans="5:7">
+      <c r="E114" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" ht="18" spans="6:7">
+      <c r="F115" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" ht="18" spans="6:7">
+      <c r="F116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" ht="18" spans="6:7">
+      <c r="F117" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" ht="18" spans="6:7">
+      <c r="F118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" ht="18" spans="6:7">
+      <c r="F119" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" ht="18" spans="6:7">
+      <c r="F120" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" ht="18" spans="6:7">
+      <c r="F121" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" ht="18" spans="6:7">
+      <c r="F122" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" ht="18" spans="5:7">
+      <c r="E124" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" ht="18" spans="6:7">
+      <c r="F125" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" ht="18" spans="6:7">
+      <c r="F126" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" ht="18" spans="6:7">
+      <c r="F127" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" ht="18" spans="6:7">
+      <c r="F128" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" ht="18" spans="6:7">
+      <c r="F129" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" ht="18" spans="6:7">
+      <c r="F130" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" ht="18" spans="6:7">
+      <c r="F131" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" ht="18" spans="6:7">
+      <c r="F132" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
